--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{88AB60E0-AEE7-4C6C-91BC-2369E2A3E51A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="0" windowWidth="17790" windowHeight="5610"/>
+    <workbookView xWindow="20790" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="439">
   <si>
     <t>Accept</t>
   </si>
@@ -461,18 +462,6 @@
 old-user
 new-shipping
 new-payment</t>
-  </si>
-  <si>
-    <t>5974944</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>$17.99</t>
-  </si>
-  <si>
-    <t>overview</t>
   </si>
   <si>
     <t>Guest, verify the PDP basics id</t>
@@ -731,9 +720,6 @@
     <t>nextDay</t>
   </si>
   <si>
-    <t>http://stage.com/oshstorefront/Osh-Categories/Outdoor/Lawn-%26-Garden/Planters/Plastic/Fiskars-17-in-H-x-21-5-in-W-x-21-5-in-D-Clay-Indoor-Outdoor-Pot/p/5974944</t>
-  </si>
-  <si>
     <t>AC-01</t>
   </si>
   <si>
@@ -908,15 +894,6 @@
     <t>pymt0029@OSH-automation.com</t>
   </si>
   <si>
-    <t>Fiskars 17 in H x 21.5 in W x 21.5 in D Clay Indoor/Outdoor Pot</t>
-  </si>
-  <si>
-    <t>17 in H x 21.5 in W x 21.5 in D Clay Indoor/Outdoor Pot</t>
-  </si>
-  <si>
-    <t>Attached Tray to Catch Excess WaterPerfect for indoor &amp; outdoor useAll Weather Durability with UV ProtectionMatte finish made with light weight resin material</t>
-  </si>
-  <si>
     <t>REG-01</t>
   </si>
   <si>
@@ -957,17 +934,6 @@
   </si>
   <si>
     <t>The Racor 4-Bike Gravity Bike Stand offers a convenient way to store up to 4 bicycles while freeing up floor space. The stand features adjustable arms to accommodate virtually any style of bike and are vinyl coated to protect a bike's finish. An anchor can be used to secure the stand to the wall for added reliability and support.</t>
-  </si>
-  <si>
-    <t>Steel construction
-Black finish
-Supports upto 160 lbs
-Vinyl coated bike cradles and base protect stored bikes and the floor
-Stand accommodates upto 4-bikes to free up floor space
-Gravity stand requires no bolts, screws or fasteners
-Included anchor allows you to secure stand to wall for additional support
-Independent adjustment arms for level bike storage
-1 Year limited warranty</t>
   </si>
   <si>
     <t>U-01</t>
@@ -1117,10 +1083,6 @@
   <si>
     <t>Guest
 title</t>
-  </si>
-  <si>
-    <t>Guest
-price</t>
   </si>
   <si>
     <t>Guest
@@ -1289,13 +1251,6 @@
     <t>Richelieu Hardware is an innovator in craftsmanship design and style for your kitchen. Our unique products will bring together functionality, aesthetics, ergonomics, in all kinds of styles and finishes for your home.</t>
   </si>
   <si>
-    <t>Oil-Rubbed Bronze Finish
-Contemporary Collection
-Tuscany Pull
-Center to center: 12''
-338 x 55 mm (13 5/16" x 2 5/32") in length</t>
-  </si>
-  <si>
     <t>8246936</t>
   </si>
   <si>
@@ -1434,16 +1389,6 @@
     <t>Fast Acting Electronic Fuse, 0.75 amp.</t>
   </si>
   <si>
-    <t>Size: 5 mm x 20 mm
-Glass tube fuse, nickel-plated brass end cap construction
-Fast acting fuse
-Blister pack of five fuses per card
-Fits many consumer electronic products and appliances
-750 milli amp-hour rating
-UL Listed
-250 volt rating</t>
-  </si>
-  <si>
     <t>$3.49</t>
   </si>
   <si>
@@ -1451,12 +1396,67 @@
   </si>
   <si>
     <t>cartRegression</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>sizeFamily</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>https://dev.christopherandbanks.com/easy-wear-tunic-tank-015016110007045.html</t>
+  </si>
+  <si>
+    <t>0240-BLACK</t>
+  </si>
+  <si>
+    <t>MISSY</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>$29.95</t>
+  </si>
+  <si>
+    <t>015016110007045</t>
+  </si>
+  <si>
+    <t>Easy Wear Tunic Tank</t>
+  </si>
+  <si>
+    <t>A perfect base layering piece, this silky-smooth tank features a versatile solid look and a flattering longer-length cut.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest
+price
+id
+title
+color
+add to cart button
+info
+size
+sizeFamily
+length
+</t>
+  </si>
+  <si>
+    <t>Sleeveless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1497,7 +1497,7 @@
       <name val="Monospace"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,6 +1519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,7 +1703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1782,26 +1788,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1865,17 +1856,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1918,6 +1900,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2261,13 +2270,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2277,32 +2286,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="74" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="76"/>
+      <c r="A2" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B3" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B4" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2313,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -2325,15 +2334,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="45"/>
-    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="40"/>
+    <col min="3" max="3" width="37.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1">
+    <row r="1" spans="1:6" s="40" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
@@ -2355,7 +2364,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>50</v>
@@ -2363,17 +2372,17 @@
       <c r="C2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="31"/>
+        <v>305</v>
+      </c>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>50</v>
@@ -2381,19 +2390,19 @@
       <c r="C3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>50</v>
@@ -2401,11 +2410,11 @@
       <c r="C4" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>117</v>
@@ -2413,27 +2422,27 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>50</v>
@@ -2441,12 +2450,12 @@
       <c r="C6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="46" t="s">
-        <v>160</v>
+      <c r="E6" s="30"/>
+      <c r="F6" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet25">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -2468,17 +2477,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="39"/>
+    <col min="3" max="3" width="9.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1">
+    <row r="1" spans="1:8" s="45" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
@@ -2504,211 +2513,211 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="52" customFormat="1">
+    <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="47" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="47" customFormat="1">
+      <c r="A4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="47" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="47" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="47" customFormat="1">
+      <c r="A7" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="37" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="52" customFormat="1">
-      <c r="A3" s="21" t="s">
+      <c r="D7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="47" customFormat="1">
+      <c r="A8" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="37" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="52" customFormat="1">
-      <c r="A4" s="21" t="s">
+      <c r="D8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="47" customFormat="1">
+      <c r="A9" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="37" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="52" customFormat="1">
-      <c r="A5" s="21" t="s">
+      <c r="D9" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="47" customFormat="1">
+      <c r="A10" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="37" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="52" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="52" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="52" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="52" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="52" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="37" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>58</v>
@@ -2717,7 +2726,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2725,14 +2734,14 @@
         <v>128</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
@@ -2741,7 +2750,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2749,14 +2758,14 @@
         <v>129</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>58</v>
@@ -2765,22 +2774,22 @@
         <v>58</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
@@ -2789,22 +2798,22 @@
         <v>58</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>58</v>
@@ -2813,22 +2822,22 @@
         <v>58</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>58</v>
@@ -2837,22 +2846,22 @@
         <v>58</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>58</v>
@@ -2861,22 +2870,22 @@
         <v>58</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>58</v>
@@ -2885,22 +2894,22 @@
         <v>58</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>58</v>
@@ -2909,22 +2918,22 @@
         <v>58</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
@@ -2933,22 +2942,22 @@
         <v>58</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -2957,22 +2966,22 @@
         <v>58</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
@@ -2981,22 +2990,22 @@
         <v>58</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>58</v>
@@ -3005,22 +3014,22 @@
         <v>58</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>58</v>
@@ -3029,22 +3038,22 @@
         <v>58</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>58</v>
@@ -3053,241 +3062,241 @@
         <v>58</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="68" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>389</v>
+      <c r="D25" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="73" t="s">
-        <v>390</v>
+      <c r="D26" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="68" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="73" t="s">
-        <v>391</v>
+      <c r="D27" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="68" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>392</v>
+      <c r="D28" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="68" t="s">
-        <v>411</v>
-      </c>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="73" t="s">
-        <v>393</v>
+      <c r="D29" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="B30" s="68" t="s">
+      <c r="A30" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F30" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="73" t="s">
+      <c r="D30" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="65" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="68" t="s">
-        <v>413</v>
-      </c>
-      <c r="B31" s="68" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C33" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="73" t="s">
+      <c r="D33" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="65" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="68" t="s">
-        <v>414</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="68" t="s">
-        <v>415</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -3309,12 +3318,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="10.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="39"/>
+    <col min="3" max="3" width="10.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3342,7 +3351,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>60</v>
@@ -3360,12 +3369,12 @@
         <v>69</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>60</v>
@@ -3383,12 +3392,12 @@
         <v>69</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>60</v>
@@ -3406,12 +3415,12 @@
         <v>69</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>60</v>
@@ -3429,12 +3438,12 @@
         <v>69</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>60</v>
@@ -3452,12 +3461,12 @@
         <v>69</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>60</v>
@@ -3475,12 +3484,12 @@
         <v>69</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>60</v>
@@ -3498,12 +3507,12 @@
         <v>69</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>60</v>
@@ -3521,12 +3530,12 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>60</v>
@@ -3544,12 +3553,12 @@
         <v>69</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>60</v>
@@ -3567,12 +3576,12 @@
         <v>69</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>60</v>
@@ -3590,12 +3599,12 @@
         <v>69</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>60</v>
@@ -3613,12 +3622,12 @@
         <v>69</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>60</v>
@@ -3636,12 +3645,12 @@
         <v>69</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>60</v>
@@ -3659,12 +3668,12 @@
         <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>60</v>
@@ -3682,12 +3691,12 @@
         <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>60</v>
@@ -3705,12 +3714,12 @@
         <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>60</v>
@@ -3728,12 +3737,12 @@
         <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>60</v>
@@ -3751,12 +3760,12 @@
         <v>69</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>60</v>
@@ -3774,12 +3783,12 @@
         <v>69</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>60</v>
@@ -3797,12 +3806,12 @@
         <v>69</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>60</v>
@@ -3820,12 +3829,12 @@
         <v>69</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>60</v>
@@ -3843,12 +3852,12 @@
         <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>60</v>
@@ -3866,12 +3875,12 @@
         <v>69</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>60</v>
@@ -3889,12 +3898,12 @@
         <v>69</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>60</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>60</v>
@@ -3934,13 +3943,13 @@
       <c r="F27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="67" t="s">
-        <v>388</v>
+      <c r="G27" s="59" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>60</v>
@@ -3957,13 +3966,13 @@
       <c r="F28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="67" t="s">
-        <v>397</v>
+      <c r="G28" s="59" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>60</v>
@@ -3980,13 +3989,13 @@
       <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="67" t="s">
-        <v>398</v>
+      <c r="G29" s="59" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>60</v>
@@ -4003,13 +4012,13 @@
       <c r="F30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="67" t="s">
-        <v>399</v>
+      <c r="G30" s="59" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="17" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>60</v>
@@ -4026,13 +4035,13 @@
       <c r="F31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="67" t="s">
-        <v>400</v>
+      <c r="G31" s="59" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="66" t="s">
-        <v>394</v>
+      <c r="A32" s="58" t="s">
+        <v>383</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>60</v>
@@ -4049,13 +4058,13 @@
       <c r="F32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="67" t="s">
-        <v>401</v>
+      <c r="G32" s="59" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="66" t="s">
-        <v>395</v>
+      <c r="A33" s="58" t="s">
+        <v>384</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>60</v>
@@ -4072,13 +4081,13 @@
       <c r="F33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="67" t="s">
-        <v>402</v>
+      <c r="G33" s="59" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="66" t="s">
-        <v>405</v>
+      <c r="A34" s="58" t="s">
+        <v>394</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>60</v>
@@ -4095,13 +4104,13 @@
       <c r="F34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="67" t="s">
-        <v>403</v>
+      <c r="G34" s="59" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="66" t="s">
-        <v>406</v>
+      <c r="A35" s="58" t="s">
+        <v>395</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>60</v>
@@ -4116,15 +4125,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>404</v>
+        <v>385</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G68" r:id="rId1" display="tester150@ACVtesting.com"/>
+    <hyperlink ref="G68" r:id="rId1" display="tester150@ACVtesting.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -4132,169 +4141,191 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75">
+    </row>
+    <row r="2" spans="1:19" ht="45">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="75">
+      <c r="A3" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="S3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" ht="105">
+      <c r="A4" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="B4" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="150">
-      <c r="A3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>431</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" ht="180">
-      <c r="A4" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="17" t="s">
+    <row r="5" spans="1:19" ht="105">
+      <c r="A5" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="105">
-      <c r="A5" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>385</v>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -4335,7 +4366,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4355,7 +4386,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4440,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -4612,7 +4643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4630,73 +4661,73 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="79" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="79" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="71" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="79" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="69" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4707,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4727,47 +4758,47 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="51" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -4782,25 +4813,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
-        <v>297</v>
+        <v>212</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -4815,25 +4846,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
-        <v>298</v>
+        <v>213</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
@@ -4848,25 +4879,25 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42" t="s">
-        <v>307</v>
+        <v>214</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
@@ -4881,23 +4912,23 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
@@ -4912,25 +4943,25 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43" t="s">
-        <v>309</v>
+        <v>212</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -4945,25 +4976,25 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
-        <v>300</v>
+        <v>212</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
@@ -4978,25 +5009,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
-        <v>301</v>
+        <v>212</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -5011,25 +5042,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42" t="s">
-        <v>302</v>
+        <v>212</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5044,25 +5075,25 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42" t="s">
-        <v>303</v>
+        <v>212</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>50</v>
@@ -5077,25 +5108,25 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>50</v>
@@ -5110,23 +5141,23 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>50</v>
@@ -5141,23 +5172,23 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
@@ -5172,23 +5203,23 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
@@ -5203,19 +5234,19 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
@@ -5234,19 +5265,19 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
@@ -5265,19 +5296,19 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
@@ -5296,19 +5327,19 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
@@ -5327,19 +5358,19 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
+        <v>212</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
@@ -5358,20 +5389,20 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42" t="s">
-        <v>305</v>
+        <v>212</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5381,14 +5412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5403,13 +5434,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -5421,329 +5452,299 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="41"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="28"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="C4" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="41"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="57"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="57"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="57"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="58"/>
+        <v>288</v>
+      </c>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="58"/>
+        <v>289</v>
+      </c>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="E12" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G12" s="58"/>
+        <v>290</v>
+      </c>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G13" s="58"/>
+        <v>291</v>
+      </c>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="E15" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="E16" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G16" s="58"/>
+        <v>294</v>
+      </c>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>352</v>
-      </c>
-      <c r="E17" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="58"/>
+        <v>295</v>
+      </c>
+      <c r="G17" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5752,7 +5753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -5781,662 +5782,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30">
+      <c r="A2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N2" s="37"/>
+    </row>
+    <row r="3" spans="1:14" ht="45">
+      <c r="A3" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" ht="45">
+      <c r="A4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" ht="60">
+      <c r="A5" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="1:14" ht="60">
+      <c r="A6" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45">
+      <c r="A7" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
+      <c r="A8" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="45">
+      <c r="A11" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" ht="45">
+      <c r="A12" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="60">
+      <c r="A13" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" ht="45">
+      <c r="A14" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30">
+      <c r="A15" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="105">
+      <c r="A17" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="B17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="E17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" ht="105">
+      <c r="A18" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="42" t="s">
+      <c r="D18" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14" ht="45">
-      <c r="A4" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="1:14" ht="60">
-      <c r="A6" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="F18" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="30">
-      <c r="A9" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="1:14" ht="30">
-      <c r="A10" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N10" s="42"/>
-    </row>
-    <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N11" s="42"/>
-    </row>
-    <row r="12" spans="1:14" ht="45">
-      <c r="A12" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N12" s="42"/>
-    </row>
-    <row r="13" spans="1:14" ht="60">
-      <c r="A13" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" ht="45">
-      <c r="A14" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30">
-      <c r="A15" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:14" ht="30">
-      <c r="A16" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="17" spans="1:14" ht="105">
-      <c r="A17" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N17" s="42"/>
-    </row>
-    <row r="18" spans="1:14" ht="105">
-      <c r="A18" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>434</v>
-      </c>
-      <c r="N18" s="42"/>
+      <c r="K18" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N18" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" display="cart0022@OSH-automation.com"/>
+    <hyperlink ref="F10" r:id="rId1" display="cart0022@OSH-automation.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6444,7 +6445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6456,33 +6457,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="26.5703125" style="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="39"/>
+    <col min="3" max="3" width="26.5703125" style="39" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="50" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:5" s="45" customFormat="1">
+      <c r="A1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="47" customFormat="1">
+      <c r="A2" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="52" customFormat="1">
-      <c r="A2" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -6490,8 +6491,8 @@
       <c r="C2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>208</v>
+      <c r="D2" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="E2" s="11">
         <v>12</v>
@@ -6499,7 +6500,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -6508,7 +6509,7 @@
         <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E3" s="11">
         <v>12</v>
@@ -6516,16 +6517,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E4" s="11">
         <v>12</v>
@@ -6538,7 +6539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6550,14 +6551,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="45"/>
-    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="40"/>
+    <col min="3" max="3" width="37.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1">
+    <row r="1" spans="1:5" s="40" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -6575,8 +6576,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="42" t="s">
-        <v>281</v>
+      <c r="A2" s="37" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>50</v>
@@ -6584,48 +6585,48 @@
       <c r="C2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="42" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="42"/>
+      <c r="A3" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="37"/>
       <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="42" t="s">
-        <v>283</v>
+      <c r="A4" s="37" t="s">
+        <v>275</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>284</v>
+      <c r="A5" s="37" t="s">
+        <v>276</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>50</v>
@@ -6633,16 +6634,16 @@
       <c r="C5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="42" t="s">
-        <v>285</v>
+      <c r="A6" s="37" t="s">
+        <v>277</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>50</v>
@@ -6650,28 +6651,28 @@
       <c r="C6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="42" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="42" t="s">
-        <v>286</v>
+      <c r="A7" s="37" t="s">
+        <v>278</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>154</v>
+      <c r="E7" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6681,7 +6682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6693,13 +6694,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="6.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="6" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6713,7 +6714,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -6730,13 +6731,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>58</v>
@@ -6753,10 +6754,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>58</v>
@@ -6769,7 +6770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6781,15 +6782,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="23" style="44" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="44"/>
-    <col min="6" max="6" width="13.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="44"/>
-    <col min="11" max="11" width="33.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="39"/>
+    <col min="3" max="3" width="23" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="39"/>
+    <col min="6" max="6" width="13.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="39"/>
+    <col min="11" max="11" width="33.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6817,25 +6818,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3C7E4162-4515-404D-AF6D-A17819784696}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{15E6D5C7-63D0-4785-BE52-19A028EB34CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31155" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="AccountSetup" sheetId="37" r:id="rId11"/>
     <sheet name="users" sheetId="13" r:id="rId12"/>
     <sheet name="products" sheetId="8" r:id="rId13"/>
-    <sheet name="cards" sheetId="9" r:id="rId14"/>
-    <sheet name="addresses" sheetId="10" r:id="rId15"/>
+    <sheet name="addresses" sheetId="10" r:id="rId14"/>
+    <sheet name="cards" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="439">
   <si>
     <t>Accept</t>
   </si>
@@ -542,35 +542,10 @@
     <t>OrderTotal</t>
   </si>
   <si>
-    <t>ClubOrchardRewards</t>
-  </si>
-  <si>
     <t>PromotionalDiscounts</t>
   </si>
   <si>
-    <t>ProductDiscounts</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify the cart pricing basics </t>
-  </si>
-  <si>
-    <t>CRT-15</t>
-  </si>
-  <si>
-    <t>Guest
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify Promotion
-Verify clubDiscount
-Verify total</t>
-  </si>
-  <si>
-    <t>CRT-16</t>
-  </si>
-  <si>
-    <t>Guest
-Verify unit Price</t>
   </si>
   <si>
     <t xml:space="preserve">Guest
@@ -588,14 +563,6 @@
 </t>
   </si>
   <si>
-    <t>Guest
-Verify clubDiscount</t>
-  </si>
-  <si>
-    <t>Guest
-Verify total</t>
-  </si>
-  <si>
     <t>Provide a valid promotion code.</t>
   </si>
   <si>
@@ -603,9 +570,6 @@
   </si>
   <si>
     <t>ValidationMSG</t>
-  </si>
-  <si>
-    <t>newQty</t>
   </si>
   <si>
     <t>Add Payment method with spesific address</t>
@@ -786,21 +750,6 @@
     <t>REG-04</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>$129.99</t>
-  </si>
-  <si>
-    <t>-$13.00</t>
-  </si>
-  <si>
-    <t>-$15.00</t>
-  </si>
-  <si>
-    <t>$101.99</t>
-  </si>
-  <si>
     <t>U-01</t>
   </si>
   <si>
@@ -874,15 +823,6 @@
   </si>
   <si>
     <t>U-25</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify Promotion
-Verify clubDiscount
-Verify total</t>
   </si>
   <si>
     <t>Loggedin
@@ -897,25 +837,6 @@
     <t xml:space="preserve">Loggedin
 Verify discount
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loggedin
-Verify Promotion
-remove Promotion
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loggedin
-Verify Promotion
-</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify clubDiscount</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify total</t>
   </si>
   <si>
     <t>Loggedin, verify the PDP basics id</t>
@@ -1069,12 +990,6 @@
   </si>
   <si>
     <t>Guest
-Verify discount
-Verify Promotion
-Verify total</t>
-  </si>
-  <si>
-    <t>Guest
 Verify Promotion
 Verify total
 remove Promotion</t>
@@ -1086,15 +1001,6 @@
     <t>OSHCABHRDWR</t>
   </si>
   <si>
-    <t>$53.99</t>
-  </si>
-  <si>
-    <t>-$5.40</t>
-  </si>
-  <si>
-    <t>$48.59</t>
-  </si>
-  <si>
     <t>Your voucher code is: OSHCABHRDWR</t>
   </si>
   <si>
@@ -1104,9 +1010,6 @@
     <t xml:space="preserve">verify the cart promotion manual apply </t>
   </si>
   <si>
-    <t>CRT-17</t>
-  </si>
-  <si>
     <t>U-26</t>
   </si>
   <si>
@@ -1195,9 +1098,6 @@
   </si>
   <si>
     <t>ChromeG</t>
-  </si>
-  <si>
-    <t>$6.98</t>
   </si>
   <si>
     <t>cartRegression</t>
@@ -1487,11 +1387,66 @@
     <t>Please enter your email address.
 Please enter your password.</t>
   </si>
+  <si>
+    <t>$24.97</t>
+  </si>
+  <si>
+    <t>0126-WHITE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>3/4 Sleeve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart and stylish, this solid shirt features a classic cut with a button-front placket and a traditional collar. Knit side panels trim the silhouette while offering a flattering, comfortable fit. </t>
+  </si>
+  <si>
+    <t>https://dev.christopherandbanks.com/pleated-knit-to-fit-shirt-0036801530.html</t>
+  </si>
+  <si>
+    <t>Pleated Knit to Fit Shirt</t>
+  </si>
+  <si>
+    <t>030030520009544</t>
+  </si>
+  <si>
+    <t>Guest
+Verify unit Price</t>
+  </si>
+  <si>
+    <t>Guest
+Verify discount
+Verify total</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify discount
+Verify total</t>
+  </si>
+  <si>
+    <t>Guest
+Verify unit Price
+Verify subtotal
+Verify discount
+Verify total</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify unit Price
+Verify subtotal
+Verify discount
+Verify total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1532,7 +1487,7 @@
       <name val="Monospace"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,6 +1503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,7 +1687,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1799,9 +1760,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,10 +1868,28 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2276,32 +2249,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2318,21 +2291,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="33.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="33.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1">
+    <row r="1" spans="1:6" s="37" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>66</v>
       </c>
@@ -2360,13 +2333,13 @@
       <c r="C2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="29"/>
+        <v>230</v>
+      </c>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
@@ -2376,14 +2349,14 @@
       <c r="C3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>127</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2394,13 +2367,13 @@
       <c r="C4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2412,14 +2385,14 @@
       <c r="C5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -2429,15 +2402,15 @@
       <c r="B6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2459,17 +2432,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="9.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="9.5703125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="42" customFormat="1">
+    <row r="1" spans="1:8" s="41" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
@@ -2495,211 +2468,211 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="44" customFormat="1">
+    <row r="2" spans="1:8" s="43" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="43" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="43" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="43" customFormat="1">
+      <c r="A5" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="43" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="43" customFormat="1">
+      <c r="A7" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="43" customFormat="1">
+      <c r="A8" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="44" customFormat="1">
-      <c r="A3" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="30" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="44" customFormat="1">
-      <c r="A4" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="30" t="s">
+      <c r="D8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="43" customFormat="1">
+      <c r="A9" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="44" customFormat="1">
-      <c r="A5" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="30" t="s">
+      <c r="D9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="43" customFormat="1">
+      <c r="A10" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="44" customFormat="1">
-      <c r="A6" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="44" customFormat="1">
-      <c r="A7" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="44" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="44" customFormat="1">
-      <c r="A9" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="44" customFormat="1">
-      <c r="A10" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="30" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>58</v>
@@ -2708,7 +2681,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2716,14 +2689,14 @@
         <v>122</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
@@ -2732,7 +2705,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2740,14 +2713,14 @@
         <v>123</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>58</v>
@@ -2756,22 +2729,22 @@
         <v>58</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
@@ -2780,22 +2753,22 @@
         <v>58</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>58</v>
@@ -2804,22 +2777,22 @@
         <v>58</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>58</v>
@@ -2828,22 +2801,22 @@
         <v>58</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>58</v>
@@ -2852,22 +2825,22 @@
         <v>58</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>58</v>
@@ -2876,22 +2849,22 @@
         <v>58</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>58</v>
@@ -2900,22 +2873,22 @@
         <v>58</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
@@ -2924,22 +2897,22 @@
         <v>58</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -2948,22 +2921,22 @@
         <v>58</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
@@ -2972,22 +2945,22 @@
         <v>58</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>58</v>
@@ -2996,22 +2969,22 @@
         <v>58</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>58</v>
@@ -3020,265 +2993,265 @@
         <v>58</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C28" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="55" t="s">
+      <c r="D28" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C29" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" s="55" t="s">
+      <c r="D29" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B28" s="55" t="s">
+      <c r="D30" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C31" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" s="55" t="s">
+      <c r="D31" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="55" t="s">
+      <c r="D32" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C33" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>337</v>
+      <c r="D33" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3300,15 +3273,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="6" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3336,7 +3309,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>60</v>
@@ -3351,15 +3324,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>380</v>
+        <v>356</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>60</v>
@@ -3374,15 +3347,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>60</v>
@@ -3397,15 +3370,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>60</v>
@@ -3420,15 +3393,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>60</v>
@@ -3443,15 +3416,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>60</v>
@@ -3466,15 +3439,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>60</v>
@@ -3489,15 +3462,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>60</v>
@@ -3512,15 +3485,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>60</v>
@@ -3535,15 +3508,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>60</v>
@@ -3558,15 +3531,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>60</v>
@@ -3581,15 +3554,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>60</v>
@@ -3604,15 +3577,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>60</v>
@@ -3627,15 +3600,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>60</v>
@@ -3650,15 +3623,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>60</v>
@@ -3673,15 +3646,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>60</v>
@@ -3696,15 +3669,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>60</v>
@@ -3719,15 +3692,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>60</v>
@@ -3742,15 +3715,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>60</v>
@@ -3765,15 +3738,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>60</v>
@@ -3788,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>60</v>
@@ -3811,15 +3784,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>60</v>
@@ -3834,15 +3807,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>60</v>
@@ -3857,15 +3830,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>60</v>
@@ -3880,15 +3853,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>60</v>
@@ -3903,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>128</v>
@@ -3911,7 +3884,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>60</v>
@@ -3926,15 +3899,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>60</v>
@@ -3949,15 +3922,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="60" t="s">
-        <v>331</v>
+      <c r="A29" s="58" t="s">
+        <v>307</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>60</v>
@@ -3972,15 +3945,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="60" t="s">
-        <v>332</v>
+      <c r="A30" s="58" t="s">
+        <v>308</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>60</v>
@@ -3995,15 +3968,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="60" t="s">
-        <v>333</v>
+      <c r="A31" s="58" t="s">
+        <v>309</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>60</v>
@@ -4018,15 +3991,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="60" t="s">
-        <v>334</v>
+      <c r="A32" s="58" t="s">
+        <v>310</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>60</v>
@@ -4041,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="60" t="s">
-        <v>335</v>
+      <c r="A33" s="58" t="s">
+        <v>311</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>60</v>
@@ -4064,15 +4037,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="60" t="s">
-        <v>336</v>
+      <c r="A34" s="58" t="s">
+        <v>312</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>60</v>
@@ -4087,15 +4060,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="60" t="s">
-        <v>337</v>
+      <c r="A35" s="58" t="s">
+        <v>313</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>60</v>
@@ -4110,15 +4083,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="60" t="s">
-        <v>431</v>
+      <c r="A36" s="58" t="s">
+        <v>406</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>60</v>
@@ -4133,15 +4106,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="60" t="s">
-        <v>432</v>
+      <c r="A37" s="58" t="s">
+        <v>407</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>60</v>
@@ -4156,15 +4129,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="60" t="s">
-        <v>433</v>
+      <c r="A38" s="58" t="s">
+        <v>408</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>60</v>
@@ -4179,15 +4152,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="60" t="s">
-        <v>434</v>
+      <c r="A39" s="58" t="s">
+        <v>409</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>60</v>
@@ -4202,15 +4175,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="60" t="s">
-        <v>435</v>
+      <c r="A40" s="58" t="s">
+        <v>410</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>60</v>
@@ -4225,15 +4198,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="60" t="s">
-        <v>436</v>
+      <c r="A41" s="58" t="s">
+        <v>411</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>60</v>
@@ -4248,15 +4221,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="60" t="s">
-        <v>437</v>
+      <c r="A42" s="58" t="s">
+        <v>412</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>60</v>
@@ -4271,15 +4244,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="60" t="s">
-        <v>438</v>
+      <c r="A43" s="58" t="s">
+        <v>413</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>60</v>
@@ -4294,15 +4267,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="60" t="s">
-        <v>439</v>
+      <c r="A44" s="58" t="s">
+        <v>414</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>60</v>
@@ -4317,15 +4290,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="60" t="s">
-        <v>440</v>
+      <c r="A45" s="58" t="s">
+        <v>415</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>60</v>
@@ -4340,15 +4313,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="60" t="s">
-        <v>441</v>
+      <c r="A46" s="58" t="s">
+        <v>416</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>60</v>
@@ -4363,15 +4336,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="60" t="s">
-        <v>442</v>
+      <c r="A47" s="58" t="s">
+        <v>417</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>60</v>
@@ -4386,15 +4359,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="60" t="s">
-        <v>443</v>
+      <c r="A48" s="58" t="s">
+        <v>418</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>60</v>
@@ -4409,15 +4382,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="60" t="s">
-        <v>444</v>
+      <c r="A49" s="58" t="s">
+        <v>419</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>60</v>
@@ -4432,15 +4405,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="60" t="s">
-        <v>445</v>
+      <c r="A50" s="58" t="s">
+        <v>420</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>60</v>
@@ -4455,15 +4428,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="60" t="s">
-        <v>446</v>
+      <c r="A51" s="58" t="s">
+        <v>421</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>60</v>
@@ -4478,15 +4451,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="60" t="s">
-        <v>447</v>
+      <c r="A52" s="58" t="s">
+        <v>422</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>60</v>
@@ -4501,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4522,10 +4495,10 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4543,225 +4516,117 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="65" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>369</v>
+      <c r="F2" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60">
+      <c r="A3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="68">
+        <v>1</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="K3" s="72">
+        <v>24.97</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{5B76A7A3-2122-40E0-9EE3-155669D5A899}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr codeName="Sheet22">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF002060"/>
@@ -4839,7 +4704,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4868,7 +4733,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4897,7 +4762,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4926,7 +4791,153 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>376</v>
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet22">
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4954,73 +4965,73 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5051,47 +5062,47 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="47" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -5106,25 +5117,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="s">
-        <v>245</v>
+        <v>188</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -5139,25 +5150,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
-        <v>246</v>
+        <v>189</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
@@ -5172,25 +5183,25 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
-        <v>255</v>
+        <v>190</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
@@ -5205,23 +5216,23 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
@@ -5236,25 +5247,25 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36" t="s">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -5269,25 +5280,25 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35" t="s">
-        <v>248</v>
+        <v>188</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
@@ -5302,25 +5313,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
-        <v>249</v>
+        <v>188</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -5335,25 +5346,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35" t="s">
-        <v>250</v>
+        <v>188</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5368,25 +5379,25 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35" t="s">
-        <v>251</v>
+        <v>188</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>50</v>
@@ -5401,25 +5412,25 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35" t="s">
-        <v>252</v>
+        <v>188</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>50</v>
@@ -5434,23 +5445,23 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>50</v>
@@ -5465,23 +5476,23 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
@@ -5496,23 +5507,23 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
@@ -5527,19 +5538,19 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
@@ -5558,19 +5569,19 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
@@ -5589,19 +5600,19 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
@@ -5620,19 +5631,19 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
@@ -5651,19 +5662,19 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
@@ -5682,20 +5693,20 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35" t="s">
-        <v>253</v>
+        <v>188</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5727,13 +5738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -5745,299 +5756,299 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="50"/>
+        <v>231</v>
+      </c>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="50"/>
+        <v>232</v>
+      </c>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="50"/>
+        <v>233</v>
+      </c>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="50"/>
+        <v>234</v>
+      </c>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="50"/>
+        <v>235</v>
+      </c>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="50"/>
+        <v>236</v>
+      </c>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="50"/>
+        <v>237</v>
+      </c>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="47" t="s">
+      <c r="C17" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="50"/>
+        <v>238</v>
+      </c>
+      <c r="G17" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6050,10 +6061,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6064,676 +6075,449 @@
     <col min="4" max="4" width="22.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30">
+      <c r="A2" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="45">
+      <c r="A3" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="E3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" ht="45">
+      <c r="A4" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
+      <c r="D4" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" s="35"/>
-    </row>
-    <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="45">
+      <c r="A5" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:14" ht="45">
-      <c r="A4" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="60">
+      <c r="A6" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45">
+      <c r="A7" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N4" s="35"/>
-    </row>
-    <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" ht="60">
-      <c r="A6" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="45">
+      <c r="A9" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="45">
+      <c r="A11" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45">
+      <c r="A13" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="D13" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="H13" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75">
+      <c r="A14" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" ht="30">
-      <c r="A9" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="75">
+      <c r="A15" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" ht="30">
-      <c r="A10" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="1:14" ht="45">
-      <c r="A12" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" ht="60">
-      <c r="A13" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" ht="45">
-      <c r="A14" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30">
-      <c r="A15" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" ht="30">
-      <c r="A16" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N16" s="35"/>
-    </row>
-    <row r="17" spans="1:14" ht="105">
-      <c r="A17" s="53" t="s">
+      <c r="F15" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" ht="105">
-      <c r="A18" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="N18" s="35"/>
+      <c r="K15" s="34"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" display="cart0022@OSH-automation.com" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6750,33 +6534,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="26.5703125" style="37" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="26.5703125" style="36" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:5" s="41" customFormat="1">
+      <c r="A1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>188</v>
+      <c r="D1" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="44" customFormat="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="43" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -6784,8 +6568,8 @@
       <c r="C2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>189</v>
+      <c r="D2" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="11">
         <v>12</v>
@@ -6793,7 +6577,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -6802,7 +6586,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E3" s="11">
         <v>12</v>
@@ -6810,16 +6594,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E4" s="11">
         <v>12</v>
@@ -6844,14 +6628,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="37.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="37.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="38" customFormat="1">
+    <row r="1" spans="1:5" s="37" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>66</v>
       </c>
@@ -6869,8 +6653,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
-        <v>235</v>
+      <c r="A2" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>50</v>
@@ -6878,7 +6662,7 @@
       <c r="C2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -6886,8 +6670,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="35" t="s">
-        <v>236</v>
+      <c r="A3" s="34" t="s">
+        <v>227</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>50</v>
@@ -6895,33 +6679,33 @@
       <c r="C3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="35" t="s">
-        <v>237</v>
+      <c r="A4" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>378</v>
+      <c r="E4" s="27" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
-        <v>238</v>
+      <c r="A5" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>50</v>
@@ -6929,7 +6713,7 @@
       <c r="C5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -6955,13 +6739,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="37" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="6" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6975,7 +6759,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -6992,13 +6776,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>58</v>
@@ -7015,10 +6799,10 @@
         <v>91</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>58</v>
@@ -7043,15 +6827,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="23" style="37" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="37"/>
-    <col min="6" max="6" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="37"/>
-    <col min="11" max="11" width="33.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="23" style="36" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="36"/>
+    <col min="6" max="6" width="13.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="36"/>
+    <col min="11" max="11" width="33.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7079,25 +6863,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5C7539BA-8214-4231-9134-A1F463778961}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3C3D630F-7637-4E1E-9989-182092CF7ADB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33945" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>333</t>
   </si>
   <si>
@@ -1441,6 +1438,9 @@
   </si>
   <si>
     <t>sort LTH</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -2253,32 +2253,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2310,10 +2310,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="37" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>11</v>
@@ -2325,95 +2325,95 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>125</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>142</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2447,16 +2447,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="41" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>8</v>
@@ -2473,788 +2473,788 @@
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="43" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3292,10 +3292,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>33</v>
@@ -3304,21 +3304,21 @@
         <v>32</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>0</v>
@@ -3327,21 +3327,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>0</v>
@@ -3350,21 +3350,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>0</v>
@@ -3373,21 +3373,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>0</v>
@@ -3396,21 +3396,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>0</v>
@@ -3419,21 +3419,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>0</v>
@@ -3442,21 +3442,21 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -3465,21 +3465,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>0</v>
@@ -3488,21 +3488,21 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>0</v>
@@ -3511,21 +3511,21 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>0</v>
@@ -3534,21 +3534,21 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>0</v>
@@ -3557,21 +3557,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>0</v>
@@ -3580,21 +3580,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>0</v>
@@ -3603,21 +3603,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>0</v>
@@ -3626,21 +3626,21 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>0</v>
@@ -3649,21 +3649,21 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>0</v>
@@ -3672,21 +3672,21 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>0</v>
@@ -3695,21 +3695,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>0</v>
@@ -3718,21 +3718,21 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>0</v>
@@ -3741,21 +3741,21 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>0</v>
@@ -3764,21 +3764,21 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>0</v>
@@ -3787,21 +3787,21 @@
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>0</v>
@@ -3810,21 +3810,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>0</v>
@@ -3833,21 +3833,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>0</v>
@@ -3856,21 +3856,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>0</v>
@@ -3879,21 +3879,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>0</v>
@@ -3902,21 +3902,21 @@
         <v>1</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>0</v>
@@ -3925,21 +3925,21 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>0</v>
@@ -3948,21 +3948,21 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>0</v>
@@ -3971,21 +3971,21 @@
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>0</v>
@@ -3994,21 +3994,21 @@
         <v>1</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>0</v>
@@ -4017,21 +4017,21 @@
         <v>1</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>0</v>
@@ -4040,21 +4040,21 @@
         <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>0</v>
@@ -4063,21 +4063,21 @@
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>0</v>
@@ -4086,21 +4086,21 @@
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>0</v>
@@ -4109,21 +4109,21 @@
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>0</v>
@@ -4132,21 +4132,21 @@
         <v>1</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>0</v>
@@ -4155,21 +4155,21 @@
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>0</v>
@@ -4178,21 +4178,21 @@
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>0</v>
@@ -4201,21 +4201,21 @@
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>0</v>
@@ -4224,21 +4224,21 @@
         <v>1</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>0</v>
@@ -4247,21 +4247,21 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>0</v>
@@ -4270,21 +4270,21 @@
         <v>1</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>0</v>
@@ -4293,21 +4293,21 @@
         <v>1</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>0</v>
@@ -4316,21 +4316,21 @@
         <v>1</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>0</v>
@@ -4339,21 +4339,21 @@
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>0</v>
@@ -4362,21 +4362,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>0</v>
@@ -4385,21 +4385,21 @@
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>0</v>
@@ -4408,21 +4408,21 @@
         <v>1</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>0</v>
@@ -4431,21 +4431,21 @@
         <v>1</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>0</v>
@@ -4454,21 +4454,21 @@
         <v>1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4520,10 +4520,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="65" t="s">
         <v>3</v>
@@ -4532,22 +4532,22 @@
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>338</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45">
@@ -4555,34 +4555,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="69" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="K2" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -4590,31 +4590,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="68">
         <v>1</v>
       </c>
       <c r="F3" s="68" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="H3" s="68" t="s">
+      <c r="I3" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="J3" s="70" t="s">
         <v>428</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>429</v>
       </c>
       <c r="K3" s="72">
         <v>24.97</v>
@@ -4663,10 +4663,10 @@
         <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>34</v>
@@ -4678,7 +4678,7 @@
         <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>26</v>
@@ -4707,7 +4707,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>31</v>
@@ -4736,12 +4736,12 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -4750,27 +4750,27 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -4779,22 +4779,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4810,8 +4810,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4834,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>19</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4857,15 +4857,15 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4877,10 +4877,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4897,10 +4897,10 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4917,10 +4917,10 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4937,10 +4937,10 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4968,74 +4968,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5070,10 +5070,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>11</v>
@@ -5085,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>8</v>
@@ -5097,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>9</v>
@@ -5105,611 +5105,611 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5742,10 +5742,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>11</v>
@@ -5754,25 +5754,25 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>2</v>
@@ -5782,14 +5782,14 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>2</v>
@@ -5799,16 +5799,16 @@
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="46" t="s">
         <v>2</v>
@@ -5818,14 +5818,14 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="46" t="s">
         <v>2</v>
@@ -5835,14 +5835,14 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>2</v>
@@ -5852,14 +5852,14 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>2</v>
@@ -5869,14 +5869,14 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>2</v>
@@ -5886,14 +5886,14 @@
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>2</v>
@@ -5903,153 +5903,153 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G17" s="49"/>
     </row>
@@ -6087,10 +6087,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>11</v>
@@ -6105,31 +6105,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>163</v>
-      </c>
       <c r="K1" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>6</v>
@@ -6137,26 +6137,26 @@
       <c r="F2" s="35"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="45">
       <c r="A3" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>166</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>6</v>
@@ -6164,26 +6164,26 @@
       <c r="F3" s="35"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="45">
       <c r="A4" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>6</v>
@@ -6191,26 +6191,26 @@
       <c r="F4" s="35"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>6</v>
@@ -6218,88 +6218,88 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>298</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>299</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="53" t="s">
         <v>300</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="73"/>
       <c r="C7" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
       <c r="A8" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>6</v>
@@ -6307,26 +6307,26 @@
       <c r="F8" s="35"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>6</v>
@@ -6334,26 +6334,26 @@
       <c r="F9" s="35"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="45">
       <c r="A10" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>6</v>
@@ -6361,26 +6361,26 @@
       <c r="F10" s="35"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="45">
       <c r="A11" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>6</v>
@@ -6388,90 +6388,90 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="73"/>
       <c r="C12" s="53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="51" t="s">
         <v>298</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>299</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="53" t="s">
         <v>300</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
       <c r="A13" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="75">
       <c r="A14" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>6</v>
@@ -6479,42 +6479,42 @@
       <c r="F14" s="35"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="34"/>
     </row>
@@ -6531,7 +6531,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6546,70 +6546,70 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1">
       <c r="A1" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="43" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6640,10 +6640,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>11</v>
@@ -6652,75 +6652,75 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>103</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
       <c r="A4" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>107</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6753,62 +6753,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
       <c r="A3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6825,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6843,10 +6843,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -6866,25 +6866,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3C3D630F-7637-4E1E-9989-182092CF7ADB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9933DB98-C9B7-4A57-84FF-9DEF3EDCD8CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37725" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="440">
   <si>
     <t>Accept</t>
   </si>
@@ -4810,7 +4810,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6736,8 +6736,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6775,9 +6775,7 @@
       <c r="A2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
         <v>175</v>
       </c>
@@ -6785,7 +6783,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>57</v>
@@ -6805,7 +6803,7 @@
         <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>57</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9933DB98-C9B7-4A57-84FF-9DEF3EDCD8CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{385BDAA7-DA13-401D-9B81-CE648C617622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37725" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55455" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="468">
   <si>
     <t>Accept</t>
   </si>
@@ -616,15 +616,6 @@
   </si>
   <si>
     <t>Pagination</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>secondDay</t>
-  </si>
-  <si>
-    <t>nextDay</t>
   </si>
   <si>
     <t>AC-01</t>
@@ -1168,9 +1159,6 @@
     <t>Enter no data to validate the error messages</t>
   </si>
   <si>
-    <t>mahelemy@gmail.com</t>
-  </si>
-  <si>
     <t>Password11</t>
   </si>
   <si>
@@ -1441,6 +1429,105 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>shippingType</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>AAGRND</t>
+  </si>
+  <si>
+    <t>BB2DAY</t>
+  </si>
+  <si>
+    <t>CC1DAY</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple and stylish, this polka-dotted tee is sure to become a casual favorite. It's crafted using soft, lightly ribbed fabric and detailed with shimmery satin trim at the neckline. </t>
+  </si>
+  <si>
+    <t>0403-NAVY</t>
+  </si>
+  <si>
+    <t>3/4 Sleeve Satin Trim Dot Print Essential Tee</t>
+  </si>
+  <si>
+    <t>10011530001753</t>
+  </si>
+  <si>
+    <t>loggedin
+new-user
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>https://dev.christopherandbanks.com/refined-everyday-denim-barely-boot-leg-petite-pant-0036789778.html</t>
+  </si>
+  <si>
+    <t>AC-34</t>
+  </si>
+  <si>
+    <t>AC-35</t>
+  </si>
+  <si>
+    <t>AC-36</t>
+  </si>
+  <si>
+    <t>AC-37</t>
+  </si>
+  <si>
+    <t>AC-38</t>
+  </si>
+  <si>
+    <t>AC-39</t>
+  </si>
+  <si>
+    <t>AC-40</t>
+  </si>
+  <si>
+    <t>AC-41</t>
+  </si>
+  <si>
+    <t>AC-42</t>
+  </si>
+  <si>
+    <t>AC-43</t>
+  </si>
+  <si>
+    <t>AC-44</t>
+  </si>
+  <si>
+    <t>AC-45</t>
+  </si>
+  <si>
+    <t>AC-46</t>
+  </si>
+  <si>
+    <t>AC-47</t>
+  </si>
+  <si>
+    <t>AC-48</t>
+  </si>
+  <si>
+    <t>AC-49</t>
+  </si>
+  <si>
+    <t>AC-50</t>
+  </si>
+  <si>
+    <t>AC-51</t>
+  </si>
+  <si>
+    <t>mahelemy@gmail.com</t>
+  </si>
+  <si>
+    <t>COB-20</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1777,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1772,9 +1859,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1845,9 +1929,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2252,32 +2333,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="61"/>
+      <c r="A2" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2300,15 +2381,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="33.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="33.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="37" customFormat="1">
+    <row r="1" spans="1:6" s="36" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -2340,7 +2421,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -2356,10 +2437,10 @@
         <v>126</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2374,9 +2455,9 @@
         <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2392,10 +2473,10 @@
         <v>141</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -2413,7 +2494,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2427,25 +2508,26 @@
   <sheetPr codeName="Sheet25">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="9.5703125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.140625" style="35"/>
+    <col min="3" max="3" width="9.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
@@ -2456,805 +2538,1470 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="43" customFormat="1">
+    <row r="2" spans="1:9" s="42" customFormat="1">
       <c r="A2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="42" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="42" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="42" customFormat="1">
+      <c r="A5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="B5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="43" customFormat="1">
-      <c r="A3" s="20" t="s">
+    <row r="6" spans="1:9" s="42" customFormat="1">
+      <c r="A6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="B6" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="43" customFormat="1">
-      <c r="A4" s="20" t="s">
+    <row r="7" spans="1:9" s="42" customFormat="1">
+      <c r="A7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="B7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="43" customFormat="1">
-      <c r="A5" s="20" t="s">
+    <row r="8" spans="1:9" s="42" customFormat="1">
+      <c r="A8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="B8" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1">
-      <c r="A6" s="20" t="s">
+    <row r="9" spans="1:9" s="42" customFormat="1">
+      <c r="A9" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="B9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1">
-      <c r="A7" s="20" t="s">
+    <row r="10" spans="1:9" s="42" customFormat="1">
+      <c r="A10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="B10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="43" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="43" customFormat="1">
-      <c r="A9" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="43" customFormat="1">
-      <c r="A10" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
+      <c r="B11" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>57</v>
+      <c r="B12" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="B16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="20" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="B17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="20" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="B18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="20" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="B19" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="B20" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="20" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="B21" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="20" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="B22" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="16" t="s">
+      <c r="B23" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="20" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="B24" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="16" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="53" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="58" t="s">
+      <c r="B28" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="58" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="58" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="58" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="58" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="58" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>311</v>
+    <row r="35" spans="1:9">
+      <c r="A35" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3271,20 +4018,20 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3312,7 +4059,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
@@ -3327,15 +4074,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>59</v>
@@ -3350,15 +4097,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>59</v>
@@ -3373,15 +4120,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>59</v>
@@ -3396,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>59</v>
@@ -3419,15 +4166,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>59</v>
@@ -3442,15 +4189,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>59</v>
@@ -3465,15 +4212,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>59</v>
@@ -3488,15 +4235,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>59</v>
@@ -3511,15 +4258,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>59</v>
@@ -3534,15 +4281,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>59</v>
@@ -3557,15 +4304,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>59</v>
@@ -3580,15 +4327,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>59</v>
@@ -3603,15 +4350,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>59</v>
@@ -3626,15 +4373,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>59</v>
@@ -3649,15 +4396,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>59</v>
@@ -3672,15 +4419,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>59</v>
@@ -3695,15 +4442,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>59</v>
@@ -3718,15 +4465,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>59</v>
@@ -3741,15 +4488,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>59</v>
@@ -3764,15 +4511,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>59</v>
@@ -3787,15 +4534,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>59</v>
@@ -3810,15 +4557,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>59</v>
@@ -3833,15 +4580,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>59</v>
@@ -3856,15 +4603,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>59</v>
@@ -3879,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>127</v>
@@ -3887,7 +4634,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>59</v>
@@ -3902,15 +4649,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>59</v>
@@ -3925,15 +4672,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="58" t="s">
-        <v>305</v>
+      <c r="A29" s="56" t="s">
+        <v>302</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>59</v>
@@ -3948,15 +4695,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="58" t="s">
-        <v>306</v>
+      <c r="A30" s="56" t="s">
+        <v>303</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>59</v>
@@ -3971,15 +4718,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58" t="s">
-        <v>307</v>
+      <c r="A31" s="56" t="s">
+        <v>304</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>59</v>
@@ -3994,15 +4741,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58" t="s">
-        <v>308</v>
+      <c r="A32" s="56" t="s">
+        <v>305</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>59</v>
@@ -4017,15 +4764,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="58" t="s">
-        <v>309</v>
+      <c r="A33" s="56" t="s">
+        <v>306</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>59</v>
@@ -4040,15 +4787,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="58" t="s">
-        <v>310</v>
+      <c r="A34" s="56" t="s">
+        <v>307</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>59</v>
@@ -4063,15 +4810,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="58" t="s">
-        <v>311</v>
+      <c r="A35" s="56" t="s">
+        <v>308</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>59</v>
@@ -4086,15 +4833,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="58" t="s">
-        <v>404</v>
+      <c r="A36" s="56" t="s">
+        <v>400</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>59</v>
@@ -4109,15 +4856,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="58" t="s">
-        <v>405</v>
+      <c r="A37" s="56" t="s">
+        <v>401</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>59</v>
@@ -4132,15 +4879,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="58" t="s">
-        <v>406</v>
+      <c r="A38" s="56" t="s">
+        <v>402</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>59</v>
@@ -4155,15 +4902,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="58" t="s">
-        <v>407</v>
+      <c r="A39" s="56" t="s">
+        <v>403</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>59</v>
@@ -4178,15 +4925,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="58" t="s">
-        <v>408</v>
+      <c r="A40" s="56" t="s">
+        <v>404</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>59</v>
@@ -4201,15 +4948,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="58" t="s">
-        <v>409</v>
+      <c r="A41" s="56" t="s">
+        <v>405</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>59</v>
@@ -4224,15 +4971,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="58" t="s">
-        <v>410</v>
+      <c r="A42" s="56" t="s">
+        <v>406</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>59</v>
@@ -4247,15 +4994,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="58" t="s">
-        <v>411</v>
+      <c r="A43" s="56" t="s">
+        <v>407</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>59</v>
@@ -4270,15 +5017,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="58" t="s">
-        <v>412</v>
+      <c r="A44" s="56" t="s">
+        <v>408</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>59</v>
@@ -4293,15 +5040,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="58" t="s">
-        <v>413</v>
+      <c r="A45" s="56" t="s">
+        <v>409</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>59</v>
@@ -4316,15 +5063,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="58" t="s">
-        <v>414</v>
+      <c r="A46" s="56" t="s">
+        <v>410</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>59</v>
@@ -4339,15 +5086,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="58" t="s">
-        <v>415</v>
+      <c r="A47" s="56" t="s">
+        <v>411</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>59</v>
@@ -4362,15 +5109,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="58" t="s">
-        <v>416</v>
+      <c r="A48" s="56" t="s">
+        <v>412</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>59</v>
@@ -4385,15 +5132,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="58" t="s">
-        <v>417</v>
+      <c r="A49" s="56" t="s">
+        <v>413</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>59</v>
@@ -4408,15 +5155,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="58" t="s">
-        <v>418</v>
+      <c r="A50" s="56" t="s">
+        <v>414</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>59</v>
@@ -4431,15 +5178,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="58" t="s">
-        <v>419</v>
+      <c r="A51" s="56" t="s">
+        <v>415</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>59</v>
@@ -4454,15 +5201,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="58" t="s">
-        <v>420</v>
+      <c r="A52" s="56" t="s">
+        <v>416</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>59</v>
@@ -4477,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4498,15 +5245,15 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -4519,105 +5266,140 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>337</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>343</v>
+      <c r="B2" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="I2" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="60">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="68">
+      <c r="B3" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="66">
         <v>1</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>425</v>
+      <c r="F3" s="66" t="s">
+        <v>421</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="I3" s="68" t="s">
-        <v>427</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="K3" s="72">
+        <v>337</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="K3" s="70">
         <v>24.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60">
+      <c r="A4" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="66">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="K4" s="70">
+        <v>19.95</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +5489,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4736,7 +5518,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4765,7 +5547,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4794,7 +5576,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4845,7 +5627,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4857,7 +5639,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -4865,7 +5647,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4877,7 +5659,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -4897,7 +5679,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -4917,7 +5699,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4937,7 +5719,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4968,73 +5750,73 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5049,10 +5831,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5060,52 +5842,56 @@
     <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" style="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -5117,28 +5903,31 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -5153,25 +5942,28 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
@@ -5180,134 +5972,144 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="60">
+      <c r="A5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60">
-      <c r="A5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="60">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60">
       <c r="A6" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="60">
+      <c r="A7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="60">
-      <c r="A7" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60">
+      <c r="A8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="A8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
@@ -5316,64 +6118,70 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60">
       <c r="A9" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60">
       <c r="A10" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>53</v>
@@ -5382,31 +6190,34 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60">
       <c r="A11" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>53</v>
@@ -5415,62 +6226,70 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60">
       <c r="A12" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>89</v>
@@ -5479,29 +6298,32 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="60">
       <c r="A14" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>89</v>
@@ -5510,52 +6332,58 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="60">
       <c r="A15" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="60">
       <c r="A16" s="8" t="s">
         <v>114</v>
       </c>
@@ -5563,7 +6391,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>66</v>
@@ -5572,21 +6400,24 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" s="8" t="s">
         <v>115</v>
       </c>
@@ -5594,7 +6425,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>66</v>
@@ -5603,21 +6434,24 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="60">
       <c r="A18" s="8" t="s">
         <v>116</v>
       </c>
@@ -5634,21 +6468,24 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" s="8" t="s">
         <v>117</v>
       </c>
@@ -5665,21 +6502,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="60">
+        <v>437</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" ht="60">
       <c r="A20" s="8" t="s">
         <v>118</v>
       </c>
@@ -5687,29 +6527,66 @@
         <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34" t="s">
-        <v>237</v>
+        <v>437</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" ht="60">
+      <c r="A21" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5725,8 +6602,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5741,13 +6618,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -5759,299 +6636,329 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="26"/>
-      <c r="G2" s="33"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="49"/>
+        <v>226</v>
+      </c>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="49"/>
+        <v>227</v>
+      </c>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="49"/>
+        <v>228</v>
+      </c>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="49"/>
+        <v>229</v>
+      </c>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="49"/>
+        <v>230</v>
+      </c>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="49"/>
+        <v>231</v>
+      </c>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="49"/>
+        <v>232</v>
+      </c>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="49"/>
+        <v>233</v>
+      </c>
+      <c r="G17" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,437 +6993,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="45">
+      <c r="A3" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="45">
+      <c r="A4" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" ht="45">
+      <c r="A5" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" ht="60">
+      <c r="A6" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45">
+      <c r="A7" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="45">
+      <c r="A9" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="45">
+      <c r="A11" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45">
+      <c r="A13" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75">
+      <c r="A14" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" ht="75">
+      <c r="A15" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="F15" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="J15" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="45">
-      <c r="A4" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="45">
-      <c r="A5" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45">
-      <c r="A7" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="45">
-      <c r="A9" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="45">
-      <c r="A10" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" ht="45">
-      <c r="A11" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75">
-      <c r="A14" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6537,31 +7444,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="26.5703125" style="36" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="43" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.140625" style="35"/>
+    <col min="3" max="3" width="26.5703125" style="35" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="42" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="41" customFormat="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" s="40" customFormat="1">
+      <c r="A1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>178</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="43" customFormat="1">
+    <row r="2" spans="1:5" s="42" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>181</v>
       </c>
@@ -6571,11 +7478,11 @@
       <c r="C2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6589,10 +7496,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6609,7 +7516,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6631,14 +7538,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="37.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="37.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1">
+    <row r="1" spans="1:5" s="36" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
@@ -6656,8 +7563,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
-        <v>224</v>
+      <c r="A2" s="33" t="s">
+        <v>221</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>49</v>
@@ -6665,7 +7572,7 @@
       <c r="C2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -6673,8 +7580,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34" t="s">
-        <v>225</v>
+      <c r="A3" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>49</v>
@@ -6682,33 +7589,33 @@
       <c r="C3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="34" t="s">
-        <v>226</v>
+      <c r="A4" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="34" t="s">
-        <v>227</v>
+      <c r="A5" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>49</v>
@@ -6716,7 +7623,7 @@
       <c r="C5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -6736,19 +7643,19 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="6" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="6.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6783,7 +7690,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>57</v>
@@ -6803,7 +7710,7 @@
         <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>57</v>
@@ -6828,15 +7735,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="23" style="36" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="36"/>
-    <col min="6" max="6" width="13.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="36"/>
-    <col min="11" max="11" width="33.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="2" width="9.140625" style="35"/>
+    <col min="3" max="3" width="23" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="35"/>
+    <col min="11" max="11" width="33.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6876,13 +7783,13 @@
         <v>172</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{385BDAA7-DA13-401D-9B81-CE648C617622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A9C9C97-5C23-43AD-8F07-A747AA02B418}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55455" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56385" yWindow="0" windowWidth="17790" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="466">
   <si>
     <t>Accept</t>
   </si>
@@ -1077,12 +1077,6 @@
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>ChromeG</t>
   </si>
   <si>
     <t>cartRegression</t>
@@ -2321,10 +2315,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2344,21 +2338,7 @@
       <c r="A2" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2440,7 +2420,7 @@
         <v>249</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2476,7 +2456,7 @@
         <v>245</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -2494,7 +2474,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2562,13 +2542,13 @@
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>292</v>
@@ -2591,13 +2571,13 @@
         <v>49</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>292</v>
@@ -2620,13 +2600,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>292</v>
@@ -2649,13 +2629,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>292</v>
@@ -2678,13 +2658,13 @@
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>292</v>
@@ -2707,13 +2687,13 @@
         <v>49</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>292</v>
@@ -2736,13 +2716,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>292</v>
@@ -2765,13 +2745,13 @@
         <v>49</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>292</v>
@@ -2794,13 +2774,13 @@
         <v>49</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>292</v>
@@ -2823,13 +2803,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>292</v>
@@ -2852,13 +2832,13 @@
         <v>49</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>292</v>
@@ -2881,13 +2861,13 @@
         <v>49</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>292</v>
@@ -2910,13 +2890,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>292</v>
@@ -2939,13 +2919,13 @@
         <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>292</v>
@@ -2968,13 +2948,13 @@
         <v>49</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>292</v>
@@ -2997,13 +2977,13 @@
         <v>49</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>292</v>
@@ -3026,13 +3006,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>292</v>
@@ -3055,13 +3035,13 @@
         <v>49</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>292</v>
@@ -3084,13 +3064,13 @@
         <v>49</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>292</v>
@@ -3113,13 +3093,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>292</v>
@@ -3142,13 +3122,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>292</v>
@@ -3171,13 +3151,13 @@
         <v>49</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>292</v>
@@ -3200,13 +3180,13 @@
         <v>49</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>292</v>
@@ -3229,13 +3209,13 @@
         <v>49</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>292</v>
@@ -3258,13 +3238,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>292</v>
@@ -3287,13 +3267,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>292</v>
@@ -3316,13 +3296,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>292</v>
@@ -3345,13 +3325,13 @@
         <v>49</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F29" s="54" t="s">
         <v>292</v>
@@ -3374,13 +3354,13 @@
         <v>49</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F30" s="54" t="s">
         <v>292</v>
@@ -3403,13 +3383,13 @@
         <v>49</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F31" s="54" t="s">
         <v>292</v>
@@ -3432,13 +3412,13 @@
         <v>49</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F32" s="54" t="s">
         <v>292</v>
@@ -3461,13 +3441,13 @@
         <v>49</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F33" s="54" t="s">
         <v>292</v>
@@ -3484,19 +3464,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F34" s="54" t="s">
         <v>292</v>
@@ -3513,19 +3493,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F35" s="54" t="s">
         <v>292</v>
@@ -3537,24 +3517,24 @@
         <v>57</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F36" s="54" t="s">
         <v>292</v>
@@ -3566,24 +3546,24 @@
         <v>57</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>292</v>
@@ -3595,24 +3575,24 @@
         <v>57</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F38" s="54" t="s">
         <v>292</v>
@@ -3624,24 +3604,24 @@
         <v>57</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>292</v>
@@ -3653,24 +3633,24 @@
         <v>57</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F40" s="54" t="s">
         <v>292</v>
@@ -3682,24 +3662,24 @@
         <v>57</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F41" s="54" t="s">
         <v>292</v>
@@ -3711,24 +3691,24 @@
         <v>57</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F42" s="54" t="s">
         <v>292</v>
@@ -3740,24 +3720,24 @@
         <v>57</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>292</v>
@@ -3769,24 +3749,24 @@
         <v>57</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F44" s="54" t="s">
         <v>292</v>
@@ -3798,24 +3778,24 @@
         <v>57</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="52" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F45" s="54" t="s">
         <v>292</v>
@@ -3827,24 +3807,24 @@
         <v>57</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>292</v>
@@ -3856,24 +3836,24 @@
         <v>57</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="52" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F47" s="54" t="s">
         <v>292</v>
@@ -3885,24 +3865,24 @@
         <v>57</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F48" s="54" t="s">
         <v>292</v>
@@ -3914,24 +3894,24 @@
         <v>57</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F49" s="54" t="s">
         <v>292</v>
@@ -3943,24 +3923,24 @@
         <v>57</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F50" s="54" t="s">
         <v>292</v>
@@ -3972,24 +3952,24 @@
         <v>57</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F51" s="54" t="s">
         <v>292</v>
@@ -4001,7 +3981,7 @@
         <v>57</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4074,10 +4054,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4097,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4120,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4143,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4166,10 +4146,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4189,10 +4169,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4212,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4235,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4258,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4281,10 +4261,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4304,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4327,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4350,10 +4330,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4373,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4396,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4419,10 +4399,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4442,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4465,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4488,10 +4468,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4511,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4534,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4557,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4580,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4603,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4626,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>127</v>
@@ -4649,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4672,10 +4652,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4695,10 +4675,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4718,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4741,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4764,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4787,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4810,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4833,15 +4813,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>59</v>
@@ -4856,15 +4836,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>59</v>
@@ -4879,15 +4859,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>59</v>
@@ -4902,15 +4882,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="56" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>59</v>
@@ -4925,15 +4905,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>59</v>
@@ -4948,15 +4928,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>59</v>
@@ -4971,15 +4951,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>59</v>
@@ -4994,15 +4974,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>59</v>
@@ -5017,15 +4997,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>59</v>
@@ -5040,15 +5020,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="56" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>59</v>
@@ -5063,15 +5043,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>59</v>
@@ -5086,15 +5066,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>59</v>
@@ -5109,15 +5089,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>59</v>
@@ -5132,15 +5112,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>59</v>
@@ -5155,15 +5135,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="56" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>59</v>
@@ -5178,15 +5158,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>59</v>
@@ -5201,15 +5181,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="56" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>59</v>
@@ -5224,10 +5204,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5279,19 +5259,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="I1" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>332</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>95</v>
@@ -5302,34 +5282,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5337,31 +5317,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E3" s="66">
         <v>1</v>
       </c>
       <c r="F3" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="H3" s="66" t="s">
+      <c r="J3" s="68" t="s">
         <v>422</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>424</v>
       </c>
       <c r="K3" s="70">
         <v>24.97</v>
@@ -5369,34 +5349,34 @@
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>445</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>444</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>447</v>
       </c>
       <c r="E4" s="66">
         <v>1</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K4" s="70">
         <v>19.95</v>
@@ -5489,7 +5469,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5518,7 +5498,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5547,7 +5527,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5576,7 +5556,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5639,7 +5619,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -5659,7 +5639,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -5679,7 +5659,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -5699,7 +5679,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -5719,7 +5699,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -5814,7 +5794,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="62" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>49</v>
@@ -5868,7 +5848,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -5903,13 +5883,13 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>292</v>
@@ -5942,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>292</v>
@@ -5972,16 +5952,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>292</v>
@@ -6015,7 +5995,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>292</v>
@@ -6045,13 +6025,13 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>292</v>
@@ -6079,13 +6059,13 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>292</v>
@@ -6118,10 +6098,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>292</v>
@@ -6154,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>292</v>
@@ -6190,10 +6170,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>293</v>
@@ -6226,10 +6206,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>293</v>
@@ -6262,10 +6242,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>293</v>
@@ -6298,10 +6278,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>293</v>
@@ -6332,10 +6312,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>293</v>
@@ -6366,10 +6346,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>293</v>
@@ -6400,10 +6380,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>293</v>
@@ -6434,10 +6414,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>293</v>
@@ -6468,10 +6448,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>293</v>
@@ -6502,10 +6482,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>293</v>
@@ -6536,10 +6516,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>293</v>
@@ -6555,7 +6535,7 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
@@ -6567,13 +6547,13 @@
         <v>130</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>292</v>
@@ -6602,7 +6582,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6689,7 +6669,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>2</v>
@@ -7036,7 +7016,7 @@
         <v>164</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>6</v>
@@ -7044,10 +7024,10 @@
       <c r="F2" s="34"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>169</v>
@@ -7071,10 +7051,10 @@
       <c r="F3" s="34"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>169</v>
@@ -7098,10 +7078,10 @@
       <c r="F4" s="34"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>169</v>
@@ -7117,7 +7097,7 @@
         <v>298</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>6</v>
@@ -7125,10 +7105,10 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>169</v>
@@ -7154,10 +7134,10 @@
         <v>296</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>169</v>
@@ -7185,10 +7165,10 @@
         <v>88</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J7" s="33" t="s">
         <v>169</v>
@@ -7214,10 +7194,10 @@
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>169</v>
@@ -7241,10 +7221,10 @@
       <c r="F9" s="34"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>169</v>
@@ -7268,10 +7248,10 @@
       <c r="F10" s="34"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>169</v>
@@ -7287,7 +7267,7 @@
         <v>298</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>6</v>
@@ -7295,10 +7275,10 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>169</v>
@@ -7324,10 +7304,10 @@
         <v>296</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>169</v>
@@ -7355,10 +7335,10 @@
         <v>88</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>169</v>
@@ -7378,7 +7358,7 @@
         <v>164</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>6</v>
@@ -7386,10 +7366,10 @@
       <c r="F14" s="34"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>169</v>
@@ -7405,7 +7385,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>6</v>
@@ -7415,10 +7395,10 @@
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>169</v>
@@ -7482,7 +7462,7 @@
         <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7496,10 +7476,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7516,7 +7496,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7593,7 +7573,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
@@ -7604,13 +7584,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A9C9C97-5C23-43AD-8F07-A747AA02B418}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8D6E61-E4C0-4D98-809D-F62A61DF1956}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56385" yWindow="0" windowWidth="17790" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58245" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="469">
   <si>
     <t>Accept</t>
   </si>
@@ -1376,18 +1376,6 @@
     <t>3/4 Sleeve</t>
   </si>
   <si>
-    <t xml:space="preserve">Smart and stylish, this solid shirt features a classic cut with a button-front placket and a traditional collar. Knit side panels trim the silhouette while offering a flattering, comfortable fit. </t>
-  </si>
-  <si>
-    <t>https://dev.christopherandbanks.com/pleated-knit-to-fit-shirt-0036801530.html</t>
-  </si>
-  <si>
-    <t>Pleated Knit to Fit Shirt</t>
-  </si>
-  <si>
-    <t>030030520009544</t>
-  </si>
-  <si>
     <t>Guest
 Verify unit Price</t>
   </si>
@@ -1443,27 +1431,12 @@
     <t>P3</t>
   </si>
   <si>
-    <t xml:space="preserve">Simple and stylish, this polka-dotted tee is sure to become a casual favorite. It's crafted using soft, lightly ribbed fabric and detailed with shimmery satin trim at the neckline. </t>
-  </si>
-  <si>
-    <t>0403-NAVY</t>
-  </si>
-  <si>
-    <t>3/4 Sleeve Satin Trim Dot Print Essential Tee</t>
-  </si>
-  <si>
-    <t>10011530001753</t>
-  </si>
-  <si>
     <t>loggedin
 new-user
 new-shipping
 new-payment</t>
   </si>
   <si>
-    <t>https://dev.christopherandbanks.com/refined-everyday-denim-barely-boot-leg-petite-pant-0036789778.html</t>
-  </si>
-  <si>
     <t>AC-34</t>
   </si>
   <si>
@@ -1522,15 +1495,48 @@
   </si>
   <si>
     <t>COB-20</t>
+  </si>
+  <si>
+    <t>010011530003289</t>
+  </si>
+  <si>
+    <t>3/4 Sleeve Satin Trim Heather Essential Tee</t>
+  </si>
+  <si>
+    <t>https://dev.christopherandbanks.com/3%2F4-sleeve-satin-trim-heather-essential-tee-010011530003289.html?dwvar_010011530003289_color=0254</t>
+  </si>
+  <si>
+    <t>0254-HEATHER GREY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satin trim at the neckline adds a touch of chic shine to this solid tee. It's crafted using lightly ribbed cotton for a super-comfy fit. </t>
+  </si>
+  <si>
+    <t>$19.95</t>
+  </si>
+  <si>
+    <t>010011530004028</t>
+  </si>
+  <si>
+    <t>Elbow Sleeve Shoulder Detail Solid Boatneck</t>
+  </si>
+  <si>
+    <t>https://dev.christopherandbanks.com/elbow-sleeve-shoulder-detail-solid-boatneck-010011530004028.html?dwvar_010011530004028_color=0126#sz=36&amp;start=37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow Sleeve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautical style is always on point, and this solid top delivers with its cuffed elbow-length sleeves, boat neckline and button detailing on the left shoulder. Pair it with colored denim for a perfectly preppy look. </t>
+  </si>
+  <si>
+    <t>$22.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1771,7 +1777,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1961,9 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2317,7 +2320,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2355,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2393,7 +2396,9 @@
       <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="19" t="s">
         <v>123</v>
       </c>
@@ -2409,7 +2414,9 @@
       <c r="A3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="19" t="s">
         <v>125</v>
       </c>
@@ -2427,7 +2434,9 @@
       <c r="A4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="19" t="s">
         <v>128</v>
       </c>
@@ -2445,7 +2454,9 @@
       <c r="A5" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="19" t="s">
         <v>140</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2542,13 +2553,13 @@
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>292</v>
@@ -2571,13 +2582,13 @@
         <v>49</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>292</v>
@@ -2600,13 +2611,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>292</v>
@@ -2629,13 +2640,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>292</v>
@@ -2658,13 +2669,13 @@
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>292</v>
@@ -2687,13 +2698,13 @@
         <v>49</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>292</v>
@@ -2716,13 +2727,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>292</v>
@@ -2745,13 +2756,13 @@
         <v>49</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>292</v>
@@ -2774,13 +2785,13 @@
         <v>49</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>292</v>
@@ -2803,13 +2814,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>292</v>
@@ -2832,13 +2843,13 @@
         <v>49</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>292</v>
@@ -2861,13 +2872,13 @@
         <v>49</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>292</v>
@@ -2890,13 +2901,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>292</v>
@@ -2919,13 +2930,13 @@
         <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>292</v>
@@ -2948,13 +2959,13 @@
         <v>49</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>292</v>
@@ -2977,13 +2988,13 @@
         <v>49</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>292</v>
@@ -3006,13 +3017,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>292</v>
@@ -3035,13 +3046,13 @@
         <v>49</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>292</v>
@@ -3064,13 +3075,13 @@
         <v>49</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>292</v>
@@ -3093,13 +3104,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>292</v>
@@ -3122,13 +3133,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>292</v>
@@ -3151,13 +3162,13 @@
         <v>49</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>292</v>
@@ -3180,13 +3191,13 @@
         <v>49</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>292</v>
@@ -3209,13 +3220,13 @@
         <v>49</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>292</v>
@@ -3238,13 +3249,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>292</v>
@@ -3267,13 +3278,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>292</v>
@@ -3296,13 +3307,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>292</v>
@@ -3325,13 +3336,13 @@
         <v>49</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F29" s="54" t="s">
         <v>292</v>
@@ -3354,13 +3365,13 @@
         <v>49</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F30" s="54" t="s">
         <v>292</v>
@@ -3383,13 +3394,13 @@
         <v>49</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F31" s="54" t="s">
         <v>292</v>
@@ -3412,13 +3423,13 @@
         <v>49</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F32" s="54" t="s">
         <v>292</v>
@@ -3441,13 +3452,13 @@
         <v>49</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F33" s="54" t="s">
         <v>292</v>
@@ -3464,19 +3475,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F34" s="54" t="s">
         <v>292</v>
@@ -3493,19 +3504,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F35" s="54" t="s">
         <v>292</v>
@@ -3522,19 +3533,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F36" s="54" t="s">
         <v>292</v>
@@ -3551,19 +3562,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>292</v>
@@ -3580,19 +3591,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="52" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F38" s="54" t="s">
         <v>292</v>
@@ -3609,19 +3620,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="52" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>292</v>
@@ -3638,19 +3649,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="52" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F40" s="54" t="s">
         <v>292</v>
@@ -3667,19 +3678,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="52" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F41" s="54" t="s">
         <v>292</v>
@@ -3696,19 +3707,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="52" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F42" s="54" t="s">
         <v>292</v>
@@ -3725,19 +3736,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="52" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>292</v>
@@ -3754,19 +3765,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F44" s="54" t="s">
         <v>292</v>
@@ -3783,19 +3794,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="52" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F45" s="54" t="s">
         <v>292</v>
@@ -3812,19 +3823,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="52" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>292</v>
@@ -3841,19 +3852,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="52" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F47" s="54" t="s">
         <v>292</v>
@@ -3870,19 +3881,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="52" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F48" s="54" t="s">
         <v>292</v>
@@ -3899,19 +3910,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="52" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F49" s="54" t="s">
         <v>292</v>
@@ -3928,19 +3939,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="52" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F50" s="54" t="s">
         <v>292</v>
@@ -3957,19 +3968,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="52" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F51" s="54" t="s">
         <v>292</v>
@@ -4057,7 +4068,7 @@
         <v>348</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5228,7 +5239,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5312,24 +5323,24 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60">
+    <row r="3" spans="1:11" ht="75">
       <c r="A3" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="66">
-        <v>1</v>
+        <v>459</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>335</v>
@@ -5341,30 +5352,30 @@
         <v>421</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="K3" s="70">
-        <v>24.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60">
+        <v>461</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75">
       <c r="A4" s="66" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="66">
-        <v>1</v>
+        <v>465</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>335</v>
@@ -5373,18 +5384,18 @@
         <v>336</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>440</v>
-      </c>
-      <c r="K4" s="70">
-        <v>19.95</v>
+        <v>467</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{5B76A7A3-2122-40E0-9EE3-155669D5A899}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://dev.christopherandbanks.com/pleated-knit-to-fit-shirt-0036801530.html" xr:uid="{5B76A7A3-2122-40E0-9EE3-155669D5A899}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5619,7 +5630,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -5639,7 +5650,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -5659,7 +5670,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -5679,7 +5690,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -5699,7 +5710,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -5848,7 +5859,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -5883,13 +5894,13 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>292</v>
@@ -5922,10 +5933,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>292</v>
@@ -5952,16 +5963,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>292</v>
@@ -5995,7 +6006,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>292</v>
@@ -6025,13 +6036,13 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>292</v>
@@ -6059,13 +6070,13 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>292</v>
@@ -6098,10 +6109,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>292</v>
@@ -6134,10 +6145,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>292</v>
@@ -6170,10 +6181,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>293</v>
@@ -6206,10 +6217,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>293</v>
@@ -6242,10 +6253,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>293</v>
@@ -6278,10 +6289,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>293</v>
@@ -6312,10 +6323,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>293</v>
@@ -6346,10 +6357,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>293</v>
@@ -6380,10 +6391,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>293</v>
@@ -6414,10 +6425,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>293</v>
@@ -6448,10 +6459,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>293</v>
@@ -6482,10 +6493,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>293</v>
@@ -6516,10 +6527,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>293</v>
@@ -6535,7 +6546,7 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
@@ -6547,13 +6558,13 @@
         <v>130</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>292</v>
@@ -7016,7 +7027,7 @@
         <v>164</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>6</v>
@@ -7097,7 +7108,7 @@
         <v>298</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>6</v>
@@ -7119,7 +7130,7 @@
       <c r="A6" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="52" t="s">
         <v>299</v>
       </c>
@@ -7150,7 +7161,7 @@
       <c r="A7" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
@@ -7267,7 +7278,7 @@
         <v>298</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>6</v>
@@ -7289,7 +7300,7 @@
       <c r="A12" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="52" t="s">
         <v>299</v>
       </c>
@@ -7320,7 +7331,7 @@
       <c r="A13" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="50" t="s">
         <v>86</v>
       </c>
@@ -7358,7 +7369,7 @@
         <v>164</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>6</v>
@@ -7385,7 +7396,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>6</v>
@@ -7462,7 +7473,7 @@
         <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7476,10 +7487,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7496,7 +7507,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8D6E61-E4C0-4D98-809D-F62A61DF1956}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0383321-34F9-464F-89F8-7851CE1F4C72}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58245" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61965" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="469">
   <si>
     <t>Accept</t>
   </si>
@@ -1390,20 +1390,6 @@
 Verify total</t>
   </si>
   <si>
-    <t>Guest
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify total</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify total</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -1531,6 +1517,17 @@
   </si>
   <si>
     <t>$22.95</t>
+  </si>
+  <si>
+    <t>Guest
+Verify unit Price
+Verify subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify unit Price
+Verify subtotal
+</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2355,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2529,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2553,13 +2550,13 @@
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>292</v>
@@ -2582,13 +2579,13 @@
         <v>49</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>292</v>
@@ -2611,13 +2608,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>292</v>
@@ -2640,13 +2637,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>292</v>
@@ -2669,13 +2666,13 @@
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>292</v>
@@ -2698,13 +2695,13 @@
         <v>49</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>292</v>
@@ -2727,13 +2724,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>292</v>
@@ -2756,13 +2753,13 @@
         <v>49</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>292</v>
@@ -2785,13 +2782,13 @@
         <v>49</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>292</v>
@@ -2814,13 +2811,13 @@
         <v>49</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>292</v>
@@ -2843,13 +2840,13 @@
         <v>49</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>292</v>
@@ -2872,13 +2869,13 @@
         <v>49</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>292</v>
@@ -2901,13 +2898,13 @@
         <v>49</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>292</v>
@@ -2930,13 +2927,13 @@
         <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>292</v>
@@ -2959,13 +2956,13 @@
         <v>49</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>292</v>
@@ -2988,13 +2985,13 @@
         <v>49</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>292</v>
@@ -3017,13 +3014,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>292</v>
@@ -3046,13 +3043,13 @@
         <v>49</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>292</v>
@@ -3075,13 +3072,13 @@
         <v>49</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>292</v>
@@ -3104,13 +3101,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>292</v>
@@ -3133,13 +3130,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>292</v>
@@ -3162,13 +3159,13 @@
         <v>49</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>292</v>
@@ -3191,13 +3188,13 @@
         <v>49</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>292</v>
@@ -3220,13 +3217,13 @@
         <v>49</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F25" s="54" t="s">
         <v>292</v>
@@ -3249,13 +3246,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>292</v>
@@ -3278,13 +3275,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>292</v>
@@ -3307,13 +3304,13 @@
         <v>49</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>292</v>
@@ -3336,13 +3333,13 @@
         <v>49</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F29" s="54" t="s">
         <v>292</v>
@@ -3365,13 +3362,13 @@
         <v>49</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F30" s="54" t="s">
         <v>292</v>
@@ -3394,13 +3391,13 @@
         <v>49</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F31" s="54" t="s">
         <v>292</v>
@@ -3423,13 +3420,13 @@
         <v>49</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F32" s="54" t="s">
         <v>292</v>
@@ -3452,13 +3449,13 @@
         <v>49</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F33" s="54" t="s">
         <v>292</v>
@@ -3475,19 +3472,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F34" s="54" t="s">
         <v>292</v>
@@ -3504,19 +3501,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F35" s="54" t="s">
         <v>292</v>
@@ -3533,19 +3530,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F36" s="54" t="s">
         <v>292</v>
@@ -3562,19 +3559,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>292</v>
@@ -3591,19 +3588,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F38" s="54" t="s">
         <v>292</v>
@@ -3620,19 +3617,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>292</v>
@@ -3649,19 +3646,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F40" s="54" t="s">
         <v>292</v>
@@ -3678,19 +3675,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F41" s="54" t="s">
         <v>292</v>
@@ -3707,19 +3704,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="52" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F42" s="54" t="s">
         <v>292</v>
@@ -3736,19 +3733,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="52" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>292</v>
@@ -3765,19 +3762,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F44" s="54" t="s">
         <v>292</v>
@@ -3794,19 +3791,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="52" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F45" s="54" t="s">
         <v>292</v>
@@ -3823,19 +3820,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>292</v>
@@ -3852,19 +3849,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F47" s="54" t="s">
         <v>292</v>
@@ -3881,19 +3878,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F48" s="54" t="s">
         <v>292</v>
@@ -3910,19 +3907,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F49" s="54" t="s">
         <v>292</v>
@@ -3939,19 +3936,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F50" s="54" t="s">
         <v>292</v>
@@ -3968,19 +3965,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F51" s="54" t="s">
         <v>292</v>
@@ -4068,7 +4065,7 @@
         <v>348</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5238,8 +5235,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5328,19 +5325,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="69" t="s">
         <v>457</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>459</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>335</v>
@@ -5352,24 +5349,24 @@
         <v>421</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75">
       <c r="A4" s="66" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>463</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>465</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>84</v>
@@ -5384,21 +5381,22 @@
         <v>336</v>
       </c>
       <c r="I4" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>466</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>467</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>468</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://dev.christopherandbanks.com/pleated-knit-to-fit-shirt-0036801530.html" xr:uid="{5B76A7A3-2122-40E0-9EE3-155669D5A899}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F81E6748-E073-4E54-B7E6-8018989660D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5630,7 +5628,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -5650,7 +5648,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -5670,7 +5668,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -5690,7 +5688,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -5710,7 +5708,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -5824,8 +5822,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5859,7 +5857,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -5893,14 +5891,12 @@
       <c r="D2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>435</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>292</v>
@@ -5920,9 +5916,7 @@
       <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
         <v>69</v>
       </c>
@@ -5933,10 +5927,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>292</v>
@@ -5956,23 +5950,21 @@
       <c r="A4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>292</v>
@@ -5992,9 +5984,7 @@
       <c r="A5" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
@@ -6006,7 +5996,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>292</v>
@@ -6026,9 +6016,7 @@
       <c r="A6" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>72</v>
       </c>
@@ -6036,13 +6024,13 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>292</v>
@@ -6060,9 +6048,7 @@
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>73</v>
       </c>
@@ -6070,13 +6056,13 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>292</v>
@@ -6096,9 +6082,7 @@
       <c r="A8" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>74</v>
       </c>
@@ -6109,10 +6093,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>292</v>
@@ -6132,9 +6116,7 @@
       <c r="A9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>75</v>
       </c>
@@ -6145,10 +6127,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>292</v>
@@ -6168,9 +6150,7 @@
       <c r="A10" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>76</v>
       </c>
@@ -6181,10 +6161,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>293</v>
@@ -6204,9 +6184,7 @@
       <c r="A11" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>77</v>
       </c>
@@ -6217,10 +6195,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>293</v>
@@ -6240,9 +6218,7 @@
       <c r="A12" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
@@ -6253,10 +6229,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>293</v>
@@ -6276,9 +6252,7 @@
       <c r="A13" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>78</v>
       </c>
@@ -6289,10 +6263,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>293</v>
@@ -6310,9 +6284,7 @@
       <c r="A14" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>79</v>
       </c>
@@ -6323,10 +6295,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>293</v>
@@ -6344,9 +6316,7 @@
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>80</v>
       </c>
@@ -6357,10 +6327,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>293</v>
@@ -6378,9 +6348,7 @@
       <c r="A16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
         <v>81</v>
       </c>
@@ -6391,10 +6359,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>293</v>
@@ -6412,9 +6380,7 @@
       <c r="A17" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>82</v>
       </c>
@@ -6425,10 +6391,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>293</v>
@@ -6446,9 +6412,7 @@
       <c r="A18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
@@ -6459,10 +6423,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>293</v>
@@ -6480,9 +6444,7 @@
       <c r="A19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>83</v>
       </c>
@@ -6493,10 +6455,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>293</v>
@@ -6514,9 +6476,7 @@
       <c r="A20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
         <v>83</v>
       </c>
@@ -6527,10 +6487,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>293</v>
@@ -6546,11 +6506,9 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>129</v>
       </c>
@@ -6558,13 +6516,13 @@
         <v>130</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>292</v>
@@ -6593,7 +6551,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6964,8 +6922,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7029,20 +6987,12 @@
       <c r="D2" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="33"/>
       <c r="F2" s="34"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>169</v>
-      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="45">
@@ -7358,7 +7308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="75">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="50" t="s">
         <v>159</v>
       </c>
@@ -7369,25 +7319,17 @@
         <v>164</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>6</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>169</v>
-      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
+    <row r="15" spans="1:11" ht="60">
       <c r="A15" s="50" t="s">
         <v>160</v>
       </c>
@@ -7396,7 +7338,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>6</v>
@@ -7473,7 +7415,7 @@
         <v>179</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7487,10 +7429,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7507,7 +7449,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
